--- a/meta/BMAG069_Suckers_2021_Barcodes_01062021.xlsx
+++ b/meta/BMAG069_Suckers_2021_Barcodes_01062021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14780" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="25360" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Barcodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="735">
   <si>
     <t>Sample ID</t>
   </si>
@@ -2239,6 +2239,9 @@
   </si>
   <si>
     <t>This Paper</t>
+  </si>
+  <si>
+    <t>lacuanserinus</t>
   </si>
 </sst>
 </file>
@@ -2517,9 +2520,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2797,7 +2804,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2826,6 +2833,8 @@
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2854,6 +2863,8 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -11255,8 +11266,8 @@
   </sheetPr>
   <dimension ref="A1:P309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15519,7 +15530,9 @@
       <c r="F106" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="G106" s="17"/>
+      <c r="G106" s="17" t="s">
+        <v>713</v>
+      </c>
       <c r="H106" s="18" t="s">
         <v>726</v>
       </c>
@@ -15556,7 +15569,9 @@
       <c r="F107" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G107" s="23"/>
+      <c r="G107" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H107" s="24" t="s">
         <v>726</v>
       </c>
@@ -15593,7 +15608,9 @@
       <c r="F108" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G108" s="23"/>
+      <c r="G108" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H108" s="24" t="s">
         <v>726</v>
       </c>
@@ -15630,7 +15647,9 @@
       <c r="F109" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G109" s="23"/>
+      <c r="G109" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H109" s="24" t="s">
         <v>726</v>
       </c>
@@ -15667,7 +15686,9 @@
       <c r="F110" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G110" s="23"/>
+      <c r="G110" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H110" s="24" t="s">
         <v>726</v>
       </c>
@@ -15704,7 +15725,9 @@
       <c r="F111" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G111" s="23"/>
+      <c r="G111" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H111" s="24" t="s">
         <v>726</v>
       </c>
@@ -15741,7 +15764,9 @@
       <c r="F112" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G112" s="23"/>
+      <c r="G112" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H112" s="24" t="s">
         <v>726</v>
       </c>
@@ -15778,7 +15803,9 @@
       <c r="F113" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G113" s="23"/>
+      <c r="G113" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H113" s="24" t="s">
         <v>726</v>
       </c>
@@ -15815,7 +15842,9 @@
       <c r="F114" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G114" s="23"/>
+      <c r="G114" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H114" s="24" t="s">
         <v>726</v>
       </c>
@@ -15852,7 +15881,9 @@
       <c r="F115" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G115" s="23"/>
+      <c r="G115" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H115" s="24" t="s">
         <v>726</v>
       </c>
@@ -15889,7 +15920,9 @@
       <c r="F116" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G116" s="23"/>
+      <c r="G116" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H116" s="24" t="s">
         <v>726</v>
       </c>
@@ -15926,7 +15959,9 @@
       <c r="F117" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G117" s="23"/>
+      <c r="G117" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H117" s="24" t="s">
         <v>726</v>
       </c>
@@ -15963,7 +15998,9 @@
       <c r="F118" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G118" s="23"/>
+      <c r="G118" s="23" t="s">
+        <v>713</v>
+      </c>
       <c r="H118" s="24" t="s">
         <v>726</v>
       </c>
@@ -16000,7 +16037,9 @@
       <c r="F119" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="G119" s="17"/>
+      <c r="G119" s="17" t="s">
+        <v>734</v>
+      </c>
       <c r="H119" s="18" t="s">
         <v>726</v>
       </c>
@@ -16037,7 +16076,9 @@
       <c r="F120" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G120" s="23"/>
+      <c r="G120" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H120" s="24" t="s">
         <v>726</v>
       </c>
@@ -16074,7 +16115,9 @@
       <c r="F121" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G121" s="23"/>
+      <c r="G121" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H121" s="24" t="s">
         <v>726</v>
       </c>
@@ -16111,7 +16154,9 @@
       <c r="F122" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G122" s="23"/>
+      <c r="G122" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H122" s="24" t="s">
         <v>726</v>
       </c>
@@ -16148,7 +16193,9 @@
       <c r="F123" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G123" s="23"/>
+      <c r="G123" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H123" s="24" t="s">
         <v>726</v>
       </c>
@@ -16925,7 +16972,9 @@
       <c r="F144" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="G144" s="17"/>
+      <c r="G144" s="17" t="s">
+        <v>734</v>
+      </c>
       <c r="H144" s="18" t="s">
         <v>726</v>
       </c>
@@ -16962,7 +17011,9 @@
       <c r="F145" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G145" s="23"/>
+      <c r="G145" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H145" s="24" t="s">
         <v>726</v>
       </c>
@@ -16999,7 +17050,9 @@
       <c r="F146" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G146" s="23"/>
+      <c r="G146" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H146" s="24" t="s">
         <v>726</v>
       </c>
@@ -17036,7 +17089,9 @@
       <c r="F147" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G147" s="23"/>
+      <c r="G147" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H147" s="24" t="s">
         <v>726</v>
       </c>
@@ -17073,7 +17128,9 @@
       <c r="F148" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G148" s="23"/>
+      <c r="G148" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H148" s="24" t="s">
         <v>726</v>
       </c>
@@ -17110,7 +17167,9 @@
       <c r="F149" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G149" s="23"/>
+      <c r="G149" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H149" s="24" t="s">
         <v>726</v>
       </c>
@@ -17147,7 +17206,9 @@
       <c r="F150" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G150" s="23"/>
+      <c r="G150" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H150" s="24" t="s">
         <v>726</v>
       </c>
@@ -17184,7 +17245,9 @@
       <c r="F151" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G151" s="23"/>
+      <c r="G151" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H151" s="24" t="s">
         <v>726</v>
       </c>
@@ -17221,7 +17284,9 @@
       <c r="F152" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="G152" s="23"/>
+      <c r="G152" s="23" t="s">
+        <v>734</v>
+      </c>
       <c r="H152" s="24" t="s">
         <v>726</v>
       </c>

--- a/meta/BMAG069_Suckers_2021_Barcodes_01062021.xlsx
+++ b/meta/BMAG069_Suckers_2021_Barcodes_01062021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="25360" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Barcodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="740">
   <si>
     <t>Sample ID</t>
   </si>
@@ -2243,14 +2243,84 @@
   <si>
     <t>lacuanserinus</t>
   </si>
+  <si>
+    <t>KSS_3734-017</t>
+  </si>
+  <si>
+    <r>
+      <t>KSS_3734-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KSS_3734-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KSS_3734-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KSS_3734-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2520,228 +2590,232 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2754,57 +2828,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2835,6 +2910,8 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2865,6 +2942,8 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -3149,8 +3228,8 @@
   </sheetPr>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11096,7 +11175,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="68" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B306" s="76" t="s">
         <v>102</v>
@@ -11122,7 +11201,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="68" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B307" s="76" t="s">
         <v>102</v>
@@ -11148,7 +11227,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="71" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B308" s="76" t="s">
         <v>102</v>
@@ -11174,7 +11253,7 @@
     </row>
     <row r="309" spans="1:8" ht="15" thickBot="1">
       <c r="A309" s="74" t="s">
-        <v>478</v>
+        <v>735</v>
       </c>
       <c r="B309" s="77" t="s">
         <v>102</v>
@@ -11266,8 +11345,8 @@
   </sheetPr>
   <dimension ref="A1:P309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22625,8 +22704,8 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="14" t="s">
-        <v>442</v>
+      <c r="A306" s="82" t="s">
+        <v>736</v>
       </c>
       <c r="D306" s="59" t="s">
         <v>687</v>
@@ -22655,8 +22734,8 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="14" t="s">
-        <v>454</v>
+      <c r="A307" s="82" t="s">
+        <v>737</v>
       </c>
       <c r="D307" s="59" t="s">
         <v>687</v>
@@ -22685,8 +22764,8 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="14" t="s">
-        <v>466</v>
+      <c r="A308" s="82" t="s">
+        <v>738</v>
       </c>
       <c r="D308" s="59" t="s">
         <v>687</v>
@@ -22715,8 +22794,8 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="14" t="s">
-        <v>478</v>
+      <c r="A309" s="82" t="s">
+        <v>739</v>
       </c>
       <c r="D309" s="59" t="s">
         <v>687</v>
